--- a/xls/Level.xlsx
+++ b/xls/Level.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -376,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Meteor_26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sn26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,13 +405,17 @@
   </si>
   <si>
     <t>DisableFindWay</t>
+  </si>
+  <si>
+    <t>Meteor_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,11 +464,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -542,6 +547,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -576,6 +582,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,26 +758,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="78.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
     <col min="12" max="12" width="22.75" customWidth="1"/>
     <col min="13" max="13" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +789,7 @@
         <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
         <v>111</v>
@@ -808,10 +816,10 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -822,7 +830,7 @@
         <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>110</v>
@@ -849,13 +857,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
@@ -875,13 +886,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
@@ -901,13 +915,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
@@ -924,13 +941,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
@@ -953,13 +973,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -976,13 +999,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="F8" t="s">
         <v>45</v>
       </c>
@@ -1005,13 +1031,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="F9" t="s">
         <v>51</v>
       </c>
@@ -1031,13 +1060,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="F10" t="s">
         <v>56</v>
       </c>
@@ -1054,13 +1086,16 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="F11" t="s">
         <v>61</v>
       </c>
@@ -1083,13 +1118,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="F12" t="s">
         <v>67</v>
       </c>
@@ -1103,13 +1141,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="F13" t="s">
         <v>70</v>
       </c>
@@ -1123,13 +1164,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14" t="s">
         <v>112</v>
       </c>
@@ -1146,13 +1190,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15" t="s">
         <v>112</v>
       </c>
@@ -1169,13 +1216,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16" t="s">
         <v>112</v>
       </c>
@@ -1192,13 +1242,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>81</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17" t="s">
         <v>112</v>
       </c>
@@ -1215,13 +1268,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18" t="s">
         <v>112</v>
       </c>
@@ -1238,13 +1294,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19" t="s">
         <v>112</v>
       </c>
@@ -1261,13 +1320,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20" t="s">
         <v>112</v>
       </c>
@@ -1284,13 +1346,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>93</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21" t="s">
         <v>112</v>
       </c>
@@ -1307,13 +1372,16 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22" t="s">
         <v>112</v>
       </c>
@@ -1330,13 +1398,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23" t="s">
         <v>112</v>
       </c>
@@ -1353,13 +1424,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>103</v>
       </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24" t="s">
         <v>112</v>
       </c>
@@ -1376,7 +1450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1408,30 +1482,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="46.5" customHeight="1">
+    <row r="26" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
         <v>109</v>
@@ -1440,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1451,12 +1525,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1465,12 +1539,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Level.xlsx
+++ b/xls/Level.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -15,8 +15,83 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0:旧版本读取</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>des</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">数据
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>新版本直接加载地图，读取刷怪盒配置等</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
   <si>
     <t>关卡编号</t>
   </si>
@@ -408,14 +483,78 @@
   </si>
   <si>
     <t>Meteor_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单AI近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单AI远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战AI测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程AI测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧本C#类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外初始怪物脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn1000_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn1000_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +569,27 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,7 +633,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,7 +707,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -582,7 +741,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,27 +916,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="20.75" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="22.75" customWidth="1"/>
-    <col min="13" max="13" width="47.5" customWidth="1"/>
+    <col min="2" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="20.75" customWidth="1"/>
+    <col min="15" max="15" width="22.75" customWidth="1"/>
+    <col min="16" max="16" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -786,40 +946,49 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -827,710 +996,877 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>124</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>110</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>27</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>37</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
         <v>42</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
         <v>47</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>48</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
         <v>52</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
         <v>53</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>54</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>56</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>57</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" t="s">
         <v>58</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
         <v>62</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
         <v>63</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>64</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>2</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>67</v>
       </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
         <v>68</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>70</v>
       </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
         <v>71</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>112</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
         <v>74</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>112</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>76</v>
       </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
         <v>77</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>112</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>79</v>
       </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
         <v>80</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>112</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>82</v>
       </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
         <v>83</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>112</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
         <v>86</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
         <v>112</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>88</v>
       </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
         <v>89</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>112</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>91</v>
       </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
         <v>92</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>93</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>112</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>94</v>
       </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
         <v>95</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
         <v>112</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>98</v>
       </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
         <v>99</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
         <v>112</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
         <v>102</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>103</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
         <v>112</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>104</v>
       </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
         <v>105</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>116</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>113</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>107</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>6</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>108</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" t="s">
         <v>109</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="17.25" customHeight="1">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>125</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>120</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>119</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>118</v>
       </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
         <v>117</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" t="s">
         <v>109</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>1</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P26" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" t="s">
+        <v>133</v>
+      </c>
+      <c r="L27" t="s">
+        <v>134</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" t="s">
+        <v>133</v>
+      </c>
+      <c r="L28" t="s">
+        <v>134</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1539,12 +1875,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Level.xlsx
+++ b/xls/Level.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="145">
   <si>
     <t>关卡编号</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Meteor_19</t>
   </si>
   <si>
-    <t>洛阳城</t>
-  </si>
-  <si>
     <t>sn19</t>
   </si>
   <si>
@@ -423,138 +420,119 @@
     <t>S11</t>
   </si>
   <si>
+    <t>DisableFindWay</t>
+  </si>
+  <si>
+    <t>场景版本</t>
+  </si>
+  <si>
+    <t>剧情简介</t>
+  </si>
+  <si>
+    <t>禁止寻路</t>
+  </si>
+  <si>
+    <t>剧本</t>
+  </si>
+  <si>
+    <t>剧本C#类名</t>
+  </si>
+  <si>
+    <t>额外初始怪物脚本</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>SceneMode</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
     <t>Chapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelScript</t>
+  </si>
+  <si>
+    <t>StartScript</t>
   </si>
   <si>
     <t>后传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳城&lt;夜&gt;</t>
+  </si>
+  <si>
+    <t>Meteor_27</t>
+  </si>
+  <si>
+    <t>洛阳城&lt;日&gt;</t>
+  </si>
+  <si>
+    <t>老伯设计孙剑击杀万鹏王，却不但孙剑反遭暗算被杀，自己也被十二飞鹏帮四大舵主所围</t>
   </si>
   <si>
     <t>决战前夕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老伯设计孙剑击杀万鹏王，却不但孙剑反遭暗算被杀，自己也被十二飞鹏帮四大舵主所围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meteor_25</t>
+  </si>
+  <si>
+    <t>在弥留之际，空中显示出一条幻境</t>
+  </si>
+  <si>
+    <t>大往生</t>
+  </si>
+  <si>
+    <t>往生幻境</t>
   </si>
   <si>
     <t>sn26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往生幻境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大往生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在弥留之际，空中显示出一条幻境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用五爪峰作为基础地图，再加上随机生成地板砖，通向所有反派角色楼阁，打碎所有守护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁止寻路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisableFindWay</t>
-  </si>
-  <si>
-    <t>Meteor_25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AI测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单AI近战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单AI远程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀AI</t>
   </si>
   <si>
     <t>近战AI测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn1000</t>
+  </si>
+  <si>
+    <t>sn1000_1</t>
+  </si>
+  <si>
+    <t>飞镖AI</t>
   </si>
   <si>
     <t>远程AI测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelScript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartScript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧本C#类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外初始怪物脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn1000_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sn1000_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御硬直</t>
+  </si>
+  <si>
+    <t>防御硬直测试</t>
+  </si>
+  <si>
+    <t>sn1000_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,7 +611,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -707,6 +685,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -741,6 +720,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -916,14 +896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
@@ -938,7 +918,7 @@
     <col min="16" max="16" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,16 +926,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -964,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -985,10 +965,10 @@
         <v>8</v>
       </c>
       <c r="P1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -996,16 +976,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1014,10 +994,10 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -1035,7 +1015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1070,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1102,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1131,7 +1111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1166,7 +1146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1195,7 +1175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1230,7 +1210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1262,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1291,7 +1271,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1326,7 +1306,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1352,7 +1332,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1378,7 +1358,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1389,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
         <v>73</v>
@@ -1407,7 +1387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1418,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
         <v>76</v>
@@ -1436,7 +1416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1447,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
         <v>79</v>
@@ -1465,7 +1445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1476,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
         <v>82</v>
@@ -1494,7 +1474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1505,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
@@ -1523,7 +1503,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1534,260 +1514,248 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>89</v>
-      </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="H20">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H23">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H24">
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>109</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="17.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
-      <c r="P26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
         <v>131</v>
@@ -1796,59 +1764,141 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
-      </c>
-      <c r="J27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H28">
         <v>5</v>
       </c>
       <c r="I28" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>139</v>
       </c>
-      <c r="J28" t="s">
+      <c r="G29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" t="s">
         <v>141</v>
       </c>
-      <c r="K28" t="s">
-        <v>133</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="K29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>134</v>
       </c>
-      <c r="N28">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30">
         <v>1</v>
       </c>
     </row>
@@ -1861,12 +1911,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1875,12 +1925,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Level.xlsx
+++ b/xls/Level.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
   <si>
     <t>关卡编号</t>
   </si>
@@ -526,6 +526,34 @@
   </si>
   <si>
     <t>sn1000_3</t>
+  </si>
+  <si>
+    <t>Meteor_06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪测试场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn1000_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -897,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1793,7 +1821,7 @@
         <v>134</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
         <v>135</v>
@@ -1834,7 +1862,7 @@
         <v>134</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
         <v>139</v>
@@ -1875,7 +1903,7 @@
         <v>134</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>142</v>
@@ -1899,6 +1927,47 @@
         <v>42</v>
       </c>
       <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" t="s">
+        <v>149</v>
+      </c>
+      <c r="K31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L31" t="s">
+        <v>151</v>
+      </c>
+      <c r="N31">
         <v>1</v>
       </c>
     </row>
